--- a/Week 9 Gantt Chart.xlsx
+++ b/Week 9 Gantt Chart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBADAAF-9995-4C49-AF03-123A71AB4A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9457E767-BD7B-4F13-87A6-D96326905D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Project Start:</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Modify log-file output for readability (if time)</t>
+  </si>
+  <si>
+    <t>Restore previous Functionality</t>
   </si>
 </sst>
 </file>
@@ -1461,11 +1464,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BL37"/>
+  <dimension ref="A1:BL38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2021,7 +2024,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="str">
-        <f t="shared" ref="H8:H30" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H31" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="39"/>
@@ -2173,7 +2176,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="59">
         <v>45002</v>
@@ -2475,27 +2478,24 @@
       <c r="BL13" s="39"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53"/>
-      <c r="B14" s="78" t="s">
-        <v>48</v>
+      <c r="A14" s="54"/>
+      <c r="B14" s="74" t="s">
+        <v>49</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D14" s="26">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="60">
         <v>45001</v>
       </c>
       <c r="F14" s="60">
-        <v>45005</v>
+        <v>45007</v>
       </c>
       <c r="G14" s="16"/>
-      <c r="H14" s="16">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
+      <c r="H14" s="16"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
@@ -2508,8 +2508,8 @@
       <c r="R14" s="39"/>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -2553,15 +2553,28 @@
       <c r="BK14" s="39"/>
       <c r="BL14" s="39"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="53"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="60">
+        <v>45001</v>
+      </c>
+      <c r="F15" s="60">
+        <v>45005</v>
+      </c>
       <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="H15" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
@@ -2574,11 +2587,11 @@
       <c r="R15" s="39"/>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
-      <c r="Y15" s="40"/>
+      <c r="Y15" s="39"/>
       <c r="Z15" s="39"/>
       <c r="AA15" s="39"/>
       <c r="AB15" s="39"/>
@@ -2619,7 +2632,7 @@
       <c r="BK15" s="39"/>
       <c r="BL15" s="39"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="38.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="3" customFormat="1" ht="1.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="53"/>
       <c r="B16" s="74"/>
       <c r="C16" s="66"/>
@@ -2685,7 +2698,7 @@
       <c r="BK16" s="39"/>
       <c r="BL16" s="39"/>
     </row>
-    <row r="17" spans="1:64" s="3" customFormat="1" ht="2.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="3" customFormat="1" ht="38.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="53"/>
       <c r="B17" s="74"/>
       <c r="C17" s="66"/>
@@ -2751,20 +2764,15 @@
       <c r="BK17" s="39"/>
       <c r="BL17" s="39"/>
     </row>
-    <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="3" customFormat="1" ht="2.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="53"/>
-      <c r="B18" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H18" s="16"/>
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39"/>
@@ -2781,7 +2789,7 @@
       <c r="V18" s="39"/>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
+      <c r="Y18" s="40"/>
       <c r="Z18" s="39"/>
       <c r="AA18" s="39"/>
       <c r="AB18" s="39"/>
@@ -2824,25 +2832,17 @@
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="53"/>
-      <c r="B19" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="31">
-        <v>0</v>
-      </c>
-      <c r="E19" s="61">
-        <v>45001</v>
-      </c>
-      <c r="F19" s="61">
-        <v>45007</v>
-      </c>
+      <c r="B19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="16">
+      <c r="H19" s="16" t="str">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v/>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="39"/>
@@ -2904,7 +2904,7 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="53"/>
       <c r="B20" s="75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="68" t="s">
         <v>31</v>
@@ -2916,12 +2916,12 @@
         <v>45001</v>
       </c>
       <c r="F20" s="61">
-        <v>45002</v>
+        <v>45007</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="39"/>
@@ -2980,27 +2980,27 @@
       <c r="BK20" s="39"/>
       <c r="BL20" s="39"/>
     </row>
-    <row r="21" spans="1:64" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="53"/>
       <c r="B21" s="75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="61">
-        <v>45005</v>
+        <v>45001</v>
       </c>
       <c r="F21" s="61">
-        <v>45007</v>
+        <v>45002</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="39"/>
@@ -3059,29 +3059,27 @@
       <c r="BK21" s="39"/>
       <c r="BL21" s="39"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="53"/>
       <c r="B22" s="75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" s="31">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E22" s="61">
-        <f t="shared" ref="E22:E30" si="4">F18+1</f>
-        <v>1</v>
+        <v>45005</v>
       </c>
       <c r="F22" s="61">
-        <f t="shared" ref="F22:F30" si="5">E22+1</f>
-        <v>2</v>
+        <v>45007</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="39"/>
@@ -3149,15 +3147,15 @@
         <v>29</v>
       </c>
       <c r="D23" s="31">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E23" s="61">
-        <f t="shared" si="4"/>
-        <v>45008</v>
+        <f t="shared" ref="E23:E31" si="4">F19+1</f>
+        <v>1</v>
       </c>
       <c r="F23" s="61">
-        <f t="shared" si="5"/>
-        <v>45009</v>
+        <f t="shared" ref="F23:F31" si="5">E23+1</f>
+        <v>2</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16">
@@ -3230,15 +3228,15 @@
         <v>29</v>
       </c>
       <c r="D24" s="31">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E24" s="61">
         <f t="shared" si="4"/>
-        <v>45003</v>
+        <v>45008</v>
       </c>
       <c r="F24" s="61">
         <f t="shared" si="5"/>
-        <v>45004</v>
+        <v>45009</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16">
@@ -3311,15 +3309,15 @@
         <v>29</v>
       </c>
       <c r="D25" s="31">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="E25" s="61">
         <f t="shared" si="4"/>
-        <v>45008</v>
+        <v>45003</v>
       </c>
       <c r="F25" s="61">
         <f t="shared" si="5"/>
-        <v>45009</v>
+        <v>45004</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16">
@@ -3392,15 +3390,15 @@
         <v>29</v>
       </c>
       <c r="D26" s="31">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="E26" s="61">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>45008</v>
       </c>
       <c r="F26" s="61">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>45009</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16">
@@ -3473,15 +3471,15 @@
         <v>29</v>
       </c>
       <c r="D27" s="31">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="E27" s="61">
         <f t="shared" si="4"/>
-        <v>45010</v>
+        <v>3</v>
       </c>
       <c r="F27" s="61">
         <f t="shared" si="5"/>
-        <v>45011</v>
+        <v>4</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16">
@@ -3554,15 +3552,15 @@
         <v>29</v>
       </c>
       <c r="D28" s="31">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="E28" s="61">
         <f t="shared" si="4"/>
-        <v>45005</v>
+        <v>45010</v>
       </c>
       <c r="F28" s="61">
         <f t="shared" si="5"/>
-        <v>45006</v>
+        <v>45011</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16">
@@ -3635,15 +3633,15 @@
         <v>29</v>
       </c>
       <c r="D29" s="31">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="E29" s="61">
         <f t="shared" si="4"/>
-        <v>45010</v>
+        <v>45005</v>
       </c>
       <c r="F29" s="61">
         <f t="shared" si="5"/>
-        <v>45011</v>
+        <v>45006</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16">
@@ -3716,15 +3714,15 @@
         <v>29</v>
       </c>
       <c r="D30" s="31">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="E30" s="61">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>45010</v>
       </c>
       <c r="F30" s="61">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>45011</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16">
@@ -3788,15 +3786,30 @@
       <c r="BK30" s="39"/>
       <c r="BL30" s="39"/>
     </row>
-    <row r="31" spans="1:64" s="3" customFormat="1" ht="31.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="53"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
+      <c r="B31" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="31">
+        <v>10.5</v>
+      </c>
+      <c r="E31" s="61">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="61">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="H31" s="16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
       <c r="I31" s="39"/>
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
@@ -3854,7 +3867,7 @@
       <c r="BK31" s="39"/>
       <c r="BL31" s="39"/>
     </row>
-    <row r="32" spans="1:64" s="3" customFormat="1" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="31.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="53"/>
       <c r="B32" s="76"/>
       <c r="C32" s="77"/>
@@ -3920,7 +3933,7 @@
       <c r="BK32" s="39"/>
       <c r="BL32" s="39"/>
     </row>
-    <row r="33" spans="1:64" s="3" customFormat="1" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="33.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="53"/>
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
@@ -3986,81 +3999,147 @@
       <c r="BK33" s="39"/>
       <c r="BL33" s="39"/>
     </row>
-    <row r="34" spans="1:64" s="3" customFormat="1" ht="28.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="54"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="41"/>
-      <c r="BB34" s="41"/>
-      <c r="BC34" s="41"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="41"/>
-      <c r="BF34" s="41"/>
-      <c r="BG34" s="41"/>
-      <c r="BH34" s="41"/>
-      <c r="BI34" s="41"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="41"/>
-      <c r="BL34" s="41"/>
-    </row>
-    <row r="35" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="6"/>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="53"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="39"/>
+      <c r="AJ34" s="39"/>
+      <c r="AK34" s="39"/>
+      <c r="AL34" s="39"/>
+      <c r="AM34" s="39"/>
+      <c r="AN34" s="39"/>
+      <c r="AO34" s="39"/>
+      <c r="AP34" s="39"/>
+      <c r="AQ34" s="39"/>
+      <c r="AR34" s="39"/>
+      <c r="AS34" s="39"/>
+      <c r="AT34" s="39"/>
+      <c r="AU34" s="39"/>
+      <c r="AV34" s="39"/>
+      <c r="AW34" s="39"/>
+      <c r="AX34" s="39"/>
+      <c r="AY34" s="39"/>
+      <c r="AZ34" s="39"/>
+      <c r="BA34" s="39"/>
+      <c r="BB34" s="39"/>
+      <c r="BC34" s="39"/>
+      <c r="BD34" s="39"/>
+      <c r="BE34" s="39"/>
+      <c r="BF34" s="39"/>
+      <c r="BG34" s="39"/>
+      <c r="BH34" s="39"/>
+      <c r="BI34" s="39"/>
+      <c r="BJ34" s="39"/>
+      <c r="BK34" s="39"/>
+      <c r="BL34" s="39"/>
+    </row>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="28.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="54"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
+      <c r="AI35" s="41"/>
+      <c r="AJ35" s="41"/>
+      <c r="AK35" s="41"/>
+      <c r="AL35" s="41"/>
+      <c r="AM35" s="41"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41"/>
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41"/>
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="41"/>
+      <c r="AX35" s="41"/>
+      <c r="AY35" s="41"/>
+      <c r="AZ35" s="41"/>
+      <c r="BA35" s="41"/>
+      <c r="BB35" s="41"/>
+      <c r="BC35" s="41"/>
+      <c r="BD35" s="41"/>
+      <c r="BE35" s="41"/>
+      <c r="BF35" s="41"/>
+      <c r="BG35" s="41"/>
+      <c r="BH35" s="41"/>
+      <c r="BI35" s="41"/>
+      <c r="BJ35" s="41"/>
+      <c r="BK35" s="41"/>
+      <c r="BL35" s="41"/>
     </row>
     <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="14"/>
-      <c r="F36" s="55"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="15"/>
+      <c r="C37" s="14"/>
+      <c r="F37" s="55"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -4079,7 +4158,7 @@
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="S3:X3"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D34">
+  <conditionalFormatting sqref="D7:D35">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4093,12 +4172,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL34">
+  <conditionalFormatting sqref="I5:BL35">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL34">
+  <conditionalFormatting sqref="I7:BL35">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -4133,7 +4212,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D34</xm:sqref>
+          <xm:sqref>D7:D35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
